--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.236923809149389</v>
+        <v>0.5551036666666667</v>
       </c>
       <c r="H2">
-        <v>0.236923809149389</v>
+        <v>1.665311</v>
       </c>
       <c r="I2">
-        <v>0.2147761906978519</v>
+        <v>0.389144998960137</v>
       </c>
       <c r="J2">
-        <v>0.2147761906978519</v>
+        <v>0.389144998960137</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.616432233883737</v>
+        <v>0.7328106666666666</v>
       </c>
       <c r="N2">
-        <v>0.616432233883737</v>
+        <v>2.198432</v>
       </c>
       <c r="O2">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="P2">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="Q2">
-        <v>0.146047472934202</v>
+        <v>0.4067858880391111</v>
       </c>
       <c r="R2">
-        <v>0.146047472934202</v>
+        <v>3.661072992352</v>
       </c>
       <c r="S2">
-        <v>0.08033827326560872</v>
+        <v>0.1584837619922495</v>
       </c>
       <c r="T2">
-        <v>0.08033827326560872</v>
+        <v>0.1584837619922495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.236923809149389</v>
+        <v>0.5551036666666667</v>
       </c>
       <c r="H3">
-        <v>0.236923809149389</v>
+        <v>1.665311</v>
       </c>
       <c r="I3">
-        <v>0.2147761906978519</v>
+        <v>0.389144998960137</v>
       </c>
       <c r="J3">
-        <v>0.2147761906978519</v>
+        <v>0.389144998960137</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.60034224515025</v>
+        <v>0.6260680000000001</v>
       </c>
       <c r="N3">
-        <v>0.60034224515025</v>
+        <v>1.878204</v>
       </c>
       <c r="O3">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="P3">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="Q3">
-        <v>0.1422353715142935</v>
+        <v>0.3475326423826667</v>
       </c>
       <c r="R3">
-        <v>0.1422353715142935</v>
+        <v>3.127793781444</v>
       </c>
       <c r="S3">
-        <v>0.07824130000454586</v>
+        <v>0.1353987003959599</v>
       </c>
       <c r="T3">
-        <v>0.07824130000454586</v>
+        <v>0.1353987003959599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.236923809149389</v>
+        <v>0.5551036666666667</v>
       </c>
       <c r="H4">
-        <v>0.236923809149389</v>
+        <v>1.665311</v>
       </c>
       <c r="I4">
-        <v>0.2147761906978519</v>
+        <v>0.389144998960137</v>
       </c>
       <c r="J4">
-        <v>0.2147761906978519</v>
+        <v>0.389144998960137</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.431194311373064</v>
+        <v>0.440483</v>
       </c>
       <c r="N4">
-        <v>0.431194311373064</v>
+        <v>1.321449</v>
       </c>
       <c r="O4">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660556</v>
       </c>
       <c r="P4">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660555</v>
       </c>
       <c r="Q4">
-        <v>0.102160198734054</v>
+        <v>0.2445137284043333</v>
       </c>
       <c r="R4">
-        <v>0.102160198734054</v>
+        <v>2.200623555639</v>
       </c>
       <c r="S4">
-        <v>0.05619661742769729</v>
+        <v>0.09526253657192767</v>
       </c>
       <c r="T4">
-        <v>0.05619661742769729</v>
+        <v>0.09526253657192764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.624522674585459</v>
+        <v>0.6252976666666666</v>
       </c>
       <c r="H5">
-        <v>0.624522674585459</v>
+        <v>1.875893</v>
       </c>
       <c r="I5">
-        <v>0.5661423456488647</v>
+        <v>0.4383531842006258</v>
       </c>
       <c r="J5">
-        <v>0.5661423456488647</v>
+        <v>0.4383531842006257</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.616432233883737</v>
+        <v>0.7328106666666666</v>
       </c>
       <c r="N5">
-        <v>0.616432233883737</v>
+        <v>2.198432</v>
       </c>
       <c r="O5">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="P5">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="Q5">
-        <v>0.3849759074057606</v>
+        <v>0.4582247999751111</v>
       </c>
       <c r="R5">
-        <v>0.3849759074057606</v>
+        <v>4.124023199776</v>
       </c>
       <c r="S5">
-        <v>0.211768810705637</v>
+        <v>0.1785243595550181</v>
       </c>
       <c r="T5">
-        <v>0.211768810705637</v>
+        <v>0.1785243595550181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.624522674585459</v>
+        <v>0.6252976666666666</v>
       </c>
       <c r="H6">
-        <v>0.624522674585459</v>
+        <v>1.875893</v>
       </c>
       <c r="I6">
-        <v>0.5661423456488647</v>
+        <v>0.4383531842006258</v>
       </c>
       <c r="J6">
-        <v>0.5661423456488647</v>
+        <v>0.4383531842006257</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.60034224515025</v>
+        <v>0.6260680000000001</v>
       </c>
       <c r="N6">
-        <v>0.60034224515025</v>
+        <v>1.878204</v>
       </c>
       <c r="O6">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="P6">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="Q6">
-        <v>0.3749273446078734</v>
+        <v>0.3914788595746667</v>
       </c>
       <c r="R6">
-        <v>0.3749273446078734</v>
+        <v>3.523309736172</v>
       </c>
       <c r="S6">
-        <v>0.2062412643005925</v>
+        <v>0.1525201444546265</v>
       </c>
       <c r="T6">
-        <v>0.2062412643005925</v>
+        <v>0.1525201444546264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.624522674585459</v>
+        <v>0.6252976666666666</v>
       </c>
       <c r="H7">
-        <v>0.624522674585459</v>
+        <v>1.875893</v>
       </c>
       <c r="I7">
-        <v>0.5661423456488647</v>
+        <v>0.4383531842006258</v>
       </c>
       <c r="J7">
-        <v>0.5661423456488647</v>
+        <v>0.4383531842006257</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.431194311373064</v>
+        <v>0.440483</v>
       </c>
       <c r="N7">
-        <v>0.431194311373064</v>
+        <v>1.321449</v>
       </c>
       <c r="O7">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660556</v>
       </c>
       <c r="P7">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660555</v>
       </c>
       <c r="Q7">
-        <v>0.2692906246047411</v>
+        <v>0.2754329921063333</v>
       </c>
       <c r="R7">
-        <v>0.2692906246047411</v>
+        <v>2.478896928957</v>
       </c>
       <c r="S7">
-        <v>0.1481322706426351</v>
+        <v>0.1073086801909812</v>
       </c>
       <c r="T7">
-        <v>0.1481322706426351</v>
+        <v>0.1073086801909812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.241673039800675</v>
+        <v>0.2460686666666667</v>
       </c>
       <c r="H8">
-        <v>0.241673039800675</v>
+        <v>0.738206</v>
       </c>
       <c r="I8">
-        <v>0.2190814636532834</v>
+        <v>0.1725018168392372</v>
       </c>
       <c r="J8">
-        <v>0.2190814636532834</v>
+        <v>0.1725018168392372</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.616432233883737</v>
+        <v>0.7328106666666666</v>
       </c>
       <c r="N8">
-        <v>0.616432233883737</v>
+        <v>2.198432</v>
       </c>
       <c r="O8">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="P8">
-        <v>0.3740557694247821</v>
+        <v>0.4072614640191846</v>
       </c>
       <c r="Q8">
-        <v>0.1489750517938034</v>
+        <v>0.1803217436657778</v>
       </c>
       <c r="R8">
-        <v>0.1489750517938034</v>
+        <v>1.622895692992</v>
       </c>
       <c r="S8">
-        <v>0.08194868545353637</v>
+        <v>0.07025334247191697</v>
       </c>
       <c r="T8">
-        <v>0.08194868545353637</v>
+        <v>0.07025334247191696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.241673039800675</v>
+        <v>0.2460686666666667</v>
       </c>
       <c r="H9">
-        <v>0.241673039800675</v>
+        <v>0.738206</v>
       </c>
       <c r="I9">
-        <v>0.2190814636532834</v>
+        <v>0.1725018168392372</v>
       </c>
       <c r="J9">
-        <v>0.2190814636532834</v>
+        <v>0.1725018168392372</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.60034224515025</v>
+        <v>0.6260680000000001</v>
       </c>
       <c r="N9">
-        <v>0.60034224515025</v>
+        <v>1.878204</v>
       </c>
       <c r="O9">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="P9">
-        <v>0.3642922418463789</v>
+        <v>0.3479389450147599</v>
       </c>
       <c r="Q9">
-        <v>0.145086535306223</v>
+        <v>0.1540557180026667</v>
       </c>
       <c r="R9">
-        <v>0.145086535306223</v>
+        <v>1.386501462024</v>
       </c>
       <c r="S9">
-        <v>0.0798096775412406</v>
+        <v>0.06002010016417354</v>
       </c>
       <c r="T9">
-        <v>0.0798096775412406</v>
+        <v>0.06002010016417353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.241673039800675</v>
+        <v>0.2460686666666667</v>
       </c>
       <c r="H10">
-        <v>0.241673039800675</v>
+        <v>0.738206</v>
       </c>
       <c r="I10">
-        <v>0.2190814636532834</v>
+        <v>0.1725018168392372</v>
       </c>
       <c r="J10">
-        <v>0.2190814636532834</v>
+        <v>0.1725018168392372</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.431194311373064</v>
+        <v>0.440483</v>
       </c>
       <c r="N10">
-        <v>0.431194311373064</v>
+        <v>1.321449</v>
       </c>
       <c r="O10">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660556</v>
       </c>
       <c r="P10">
-        <v>0.2616519887288389</v>
+        <v>0.2447995909660555</v>
       </c>
       <c r="Q10">
-        <v>0.1042080399742872</v>
+        <v>0.1083890644993333</v>
       </c>
       <c r="R10">
-        <v>0.1042080399742872</v>
+        <v>0.9755015804939999</v>
       </c>
       <c r="S10">
-        <v>0.05732310065850644</v>
+        <v>0.0422283742031467</v>
       </c>
       <c r="T10">
-        <v>0.05732310065850644</v>
+        <v>0.04222837420314669</v>
       </c>
     </row>
   </sheetData>
